--- a/Results/QuestStruct_Evaluation.xlsx
+++ b/Results/QuestStruct_Evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\QuestStruct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D130B-886C-4DF4-A79A-54C6DB984A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A0360E-F58F-4775-BAC3-D9FEF42D1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,18 +239,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -372,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,21 +415,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +423,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,9 +494,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,26 +529,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,26 +564,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,88 +754,88 @@
     <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
     </row>
     <row r="2" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22" t="s">
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22" t="s">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
     </row>
     <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -968,7 +925,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1057,7 +1014,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1101,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1188,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1275,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1362,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1449,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1536,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1623,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1710,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1797,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1927,7 +1884,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +1971,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
@@ -2101,7 +2058,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
@@ -2188,7 +2145,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
@@ -2275,7 +2232,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -2362,7 +2319,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -2449,7 +2406,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
@@ -2536,7 +2493,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2580,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -2710,10 +2667,10 @@
       </c>
     </row>
     <row r="24" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="15">
         <f>AVERAGE(C4:C23)</f>
         <v>0.2189645661972463</v>
@@ -2824,206 +2781,214 @@
       </c>
     </row>
     <row r="25" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="15">
-        <f>RANK(C24,$C$24:$AC$24,1)</f>
-        <v>10</v>
+        <f>RANK(C24,$C$24:$AC$24,0)</f>
+        <v>18</v>
       </c>
       <c r="D25" s="15">
-        <f t="shared" ref="D25:F25" si="1">RANK(D24,$C$24:$AC$24,1)</f>
-        <v>11</v>
+        <f t="shared" ref="D25:AC25" si="1">RANK(D24,$C$24:$AC$24,0)</f>
+        <v>17</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R25" s="15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="X25" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Y25" s="15">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G25" s="15">
-        <f t="shared" ref="G25" si="2">RANK(G24,$C$24:$AC$24,1)</f>
-        <v>6</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" ref="H25:I25" si="3">RANK(H24,$C$24:$AC$24,1)</f>
-        <v>22</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" ref="J25" si="4">RANK(J24,$C$24:$AC$24,1)</f>
-        <v>13</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" ref="K25:L25" si="5">RANK(K24,$C$24:$AC$24,1)</f>
-        <v>26</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" ref="M25" si="6">RANK(M24,$C$24:$AC$24,1)</f>
-        <v>4</v>
-      </c>
-      <c r="N25" s="15">
-        <f t="shared" ref="N25:O25" si="7">RANK(N24,$C$24:$AC$24,1)</f>
-        <v>19</v>
-      </c>
-      <c r="O25" s="15">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="P25" s="15">
-        <f t="shared" ref="P25" si="8">RANK(P24,$C$24:$AC$24,1)</f>
-        <v>2</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" ref="Q25:R25" si="9">RANK(Q24,$C$24:$AC$24,1)</f>
-        <v>24</v>
-      </c>
-      <c r="R25" s="15">
-        <f t="shared" si="9"/>
+      <c r="Z25" s="15">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S25" s="15">
-        <f t="shared" ref="S25" si="10">RANK(S24,$C$24:$AC$24,1)</f>
+      <c r="AA25" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB25" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="T25" s="15">
-        <f t="shared" ref="T25:U25" si="11">RANK(T24,$C$24:$AC$24,1)</f>
-        <v>25</v>
-      </c>
-      <c r="U25" s="15">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="V25" s="15">
-        <f t="shared" ref="V25" si="12">RANK(V24,$C$24:$AC$24,1)</f>
-        <v>15</v>
-      </c>
-      <c r="W25" s="15">
-        <f t="shared" ref="W25:X25" si="13">RANK(W24,$C$24:$AC$24,1)</f>
-        <v>21</v>
-      </c>
-      <c r="X25" s="15">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="Y25" s="15">
-        <f t="shared" ref="Y25" si="14">RANK(Y24,$C$24:$AC$24,1)</f>
-        <v>16</v>
-      </c>
-      <c r="Z25" s="15">
-        <f t="shared" ref="Z25:AA25" si="15">RANK(Z24,$C$24:$AC$24,1)</f>
-        <v>23</v>
-      </c>
-      <c r="AA25" s="15">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="AB25" s="15">
-        <f t="shared" ref="AB25" si="16">RANK(AB24,$C$24:$AC$24,1)</f>
-        <v>14</v>
-      </c>
-      <c r="AC25" s="15">
-        <f t="shared" ref="AC25" si="17">RANK(AC24,$C$24:$AC$24,1)</f>
-        <v>27</v>
       </c>
       <c r="AD25" s="17"/>
     </row>
     <row r="26" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24">
         <f>SUM(C25:K25)</f>
-        <v>123</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19">
+        <v>129</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24">
         <f>SUM(L25:T25)</f>
-        <v>106</v>
-      </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="18">
+        <v>146</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="23">
         <f>SUM(U25:AC25)</f>
-        <v>149</v>
-      </c>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19">
-        <f>RANK(C26,$C$26:$AC$26,0)</f>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24">
+        <f>RANK(C26,$C$26:$AC$26,1)</f>
         <v>2</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19">
-        <f t="shared" ref="L27" si="18">RANK(L26,$C$26:$AC$26,0)</f>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24">
+        <f t="shared" ref="L27" si="2">RANK(L26,$C$26:$AC$26,1)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="20">
-        <f t="shared" ref="U27" si="19">RANK(U26,$C$26:$AC$26,0)</f>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24">
+        <f t="shared" ref="U27" si="3">RANK(U26,$C$26:$AC$26,1)</f>
         <v>1</v>
       </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:T26"/>
     <mergeCell ref="A4:A23"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:W2"/>
@@ -3039,14 +3004,6 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:T26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/QuestStruct_Evaluation.xlsx
+++ b/Results/QuestStruct_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\QuestStruct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A0360E-F58F-4775-BAC3-D9FEF42D1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7036B7E-0BA2-4E2F-908D-86C97A194FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,15 +122,6 @@
     <t>science crypt</t>
   </si>
   <si>
-    <t>SCORES BY RANKING</t>
-  </si>
-  <si>
-    <t>QUESTION SCORE</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Q1: </t>
     </r>
@@ -182,9 +173,6 @@
     </r>
   </si>
   <si>
-    <t>RANKING BY QUESTION SCORE</t>
-  </si>
-  <si>
     <t>1 word</t>
   </si>
   <si>
@@ -207,6 +195,18 @@
   </si>
   <si>
     <t>Topics</t>
+  </si>
+  <si>
+    <t>AVERAGE SIMILARITY</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>RANKING BY AGGREGATED SCORE</t>
   </si>
 </sst>
 </file>
@@ -415,6 +415,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,15 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,147 +754,147 @@
     <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
+      <c r="C1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="C2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>0</v>
@@ -925,8 +925,8 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>43</v>
+      <c r="A4" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2406,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
@@ -2580,7 +2580,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -2667,10 +2667,10 @@
       </c>
     </row>
     <row r="24" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="22"/>
+      <c r="A24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="15">
         <f>AVERAGE(C4:C23)</f>
         <v>0.2189645661972463</v>
@@ -2781,10 +2781,10 @@
       </c>
     </row>
     <row r="25" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="22"/>
+      <c r="A25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="15">
         <f>RANK(C24,$C$24:$AC$24,0)</f>
         <v>18</v>
@@ -2896,99 +2896,91 @@
       <c r="AD25" s="17"/>
     </row>
     <row r="26" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24">
+      <c r="A26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19">
         <f>SUM(C25:K25)</f>
         <v>129</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
         <f>SUM(L25:T25)</f>
         <v>146</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="23">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="18">
         <f>SUM(U25:AC25)</f>
         <v>103</v>
       </c>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24">
+    <row r="27" spans="1:30" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19">
         <f>RANK(C26,$C$26:$AC$26,1)</f>
         <v>2</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19">
         <f t="shared" ref="L27" si="2">RANK(L26,$C$26:$AC$26,1)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19">
         <f t="shared" ref="U27" si="3">RANK(U26,$C$26:$AC$26,1)</f>
         <v>1</v>
       </c>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:T26"/>
     <mergeCell ref="A4:A23"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:W2"/>
@@ -3004,6 +2996,14 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:T26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
